--- a/medicine/Pharmacie/Digoxine/Digoxine.xlsx
+++ b/medicine/Pharmacie/Digoxine/Digoxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La digoxine est un glycoside cardiotonique extrait de la feuille de la digitale laineuse. Il fait partie de la classe des digitaliques. Elle est utilisée dans le traitement de diverses affections du cœur, mais son indication tend à se restreindre.
@@ -534,7 +546,9 @@
           <t>Formule chimique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">o-bêta-D-digitoxopyranosyl-(1-4)-o-bêta-D-digitoxopyranosyl-(1-4)-bêtaD-digitoxopyranosido\-3bêta dihydroxy-12bêta, 14 5bêta, 14bêta-carden-20(22)olide.
 </t>
@@ -565,7 +579,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La digoxine inhibe la pompe Na+/K+ ATPase dans les membranes cellulaires des cardiomyocytes (cellules musculaires striées cardiaques). Ceci provoque une augmentation du taux d'ions sodium dans les myocytes, ce qui entraîne une augmentation du taux d'ions calcium. Le taux élevé de calcium fait augmenter la contractilité du myocarde (muscle cardiaque) (inotropisme positif).
 La digoxine diminue aussi la conductibilité des impulsions électriques via le faisceau de His, ce qui en fait un médicament utilisé couramment pour ralentir le rythme cardiaque durant la fibrillation auriculaire ou le flutter auriculaire. (Dromotrope négatif)
@@ -600,10 +616,12 @@
           <t>Positionnement aujourd'hui</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La digoxine n'a plus qu'une place limitée dans la prise en charge des patients atteints d'une insuffisance cardiaque mais elle est parfois utilisée dans la fibrillation auriculaire pour ralentir la réponse ventriculaire. Elle est encore utilisée dans l'insuffisance cardiaque grave en cas de réponse insuffisante aux autres médicaments et son usage fait partie des recommandations américaines[2] et européennes[3],[4] dans le traitement de l'insuffisance cardiaque. Elle ne semble pas en réduire la mortalité, juste le risque d'hospitalisation[5]. Cette réduction n'est plus appréciable en cas d'insuffisance cardiaque grave[6] (patients en attente de transplantation cardiaque). L'arrêt de ce traitement, s'il est donné à des patients en insuffisance cardiaque modérée, peut être délétère[7].
-Dans la fibrillation auriculaire chronique, l'utilisation de la digoxine semble corrélée avec une mortalité plus importante, en présence ou non d'une insuffisance cardiaque[8],[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La digoxine n'a plus qu'une place limitée dans la prise en charge des patients atteints d'une insuffisance cardiaque mais elle est parfois utilisée dans la fibrillation auriculaire pour ralentir la réponse ventriculaire. Elle est encore utilisée dans l'insuffisance cardiaque grave en cas de réponse insuffisante aux autres médicaments et son usage fait partie des recommandations américaines et européennes, dans le traitement de l'insuffisance cardiaque. Elle ne semble pas en réduire la mortalité, juste le risque d'hospitalisation. Cette réduction n'est plus appréciable en cas d'insuffisance cardiaque grave (patients en attente de transplantation cardiaque). L'arrêt de ce traitement, s'il est donné à des patients en insuffisance cardiaque modérée, peut être délétère.
+Dans la fibrillation auriculaire chronique, l'utilisation de la digoxine semble corrélée avec une mortalité plus importante, en présence ou non d'une insuffisance cardiaque,.
 </t>
         </is>
       </c>
@@ -632,9 +650,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La digoxine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La digoxine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
